--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1644295.147766258</v>
+        <v>-1646942.686645087</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9843463.738969913</v>
+        <v>9951405.34820215</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14833271.90172566</v>
+        <v>14821655.07652318</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>368.1477112539945</v>
+        <v>363.3004770463442</v>
       </c>
       <c r="C11" t="n">
-        <v>350.6867613615215</v>
+        <v>345.8395271538711</v>
       </c>
       <c r="D11" t="n">
-        <v>340.0969112111969</v>
+        <v>335.2496770035465</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>392.2899153322254</v>
+        <v>387.442681124575</v>
       </c>
       <c r="G11" t="n">
-        <v>217.4855790713938</v>
+        <v>391.488361036317</v>
       </c>
       <c r="H11" t="n">
-        <v>280.0216339778344</v>
+        <v>275.174399770184</v>
       </c>
       <c r="I11" t="n">
-        <v>26.99079936343987</v>
+        <v>22.14356515578953</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>31.2010370560091</v>
       </c>
       <c r="T11" t="n">
-        <v>189.3318397301341</v>
+        <v>184.4846055224837</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>231.5618073417656</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>308.3188938529985</v>
       </c>
       <c r="W11" t="n">
-        <v>334.654838307927</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>355.144970268983</v>
+        <v>350.2977360613326</v>
       </c>
       <c r="Y11" t="n">
-        <v>371.6518082465676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>165.2458497724512</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>152.6606906891418</v>
+        <v>147.8134564814914</v>
       </c>
       <c r="D13" t="n">
-        <v>134.0293426087263</v>
+        <v>129.1821084010759</v>
       </c>
       <c r="E13" t="n">
-        <v>131.8478322370831</v>
+        <v>127.0005980294328</v>
       </c>
       <c r="F13" t="n">
-        <v>130.8349176134452</v>
+        <v>125.9876834057948</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>146.5924436418918</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>125.3216502971844</v>
       </c>
       <c r="I13" t="n">
-        <v>81.76629000035203</v>
+        <v>76.91905579270168</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>74.34602226056127</v>
+        <v>69.49878805291091</v>
       </c>
       <c r="S13" t="n">
-        <v>175.1828949219558</v>
+        <v>170.3356607143055</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>200.1155846590328</v>
       </c>
       <c r="U13" t="n">
-        <v>271.6257077961268</v>
+        <v>3.263489927653153</v>
       </c>
       <c r="V13" t="n">
-        <v>237.5515129143419</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>197.4519548976497</v>
+        <v>267.0896337194546</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>206.2762907719007</v>
       </c>
       <c r="Y13" t="n">
-        <v>203.9985229426087</v>
+        <v>199.1512887349584</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>368.1477112539945</v>
+        <v>363.3004770463442</v>
       </c>
       <c r="C14" t="n">
-        <v>350.6867613615215</v>
+        <v>345.8395271538711</v>
       </c>
       <c r="D14" t="n">
-        <v>340.0969112111969</v>
+        <v>335.2496770035465</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>392.2899153322254</v>
+        <v>45.90906906245749</v>
       </c>
       <c r="G14" t="n">
-        <v>396.3355952439674</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>280.0216339778344</v>
+        <v>275.174399770184</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>94.60163137868979</v>
+        <v>89.75439717103941</v>
       </c>
       <c r="T14" t="n">
-        <v>1.356671728229233</v>
+        <v>184.4846055224837</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>231.5618073417656</v>
       </c>
       <c r="V14" t="n">
-        <v>313.1661280606489</v>
+        <v>308.3188938529985</v>
       </c>
       <c r="W14" t="n">
-        <v>334.654838307927</v>
+        <v>329.8076041002766</v>
       </c>
       <c r="X14" t="n">
-        <v>355.144970268983</v>
+        <v>350.2977360613326</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>366.8045740389172</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>165.2458497724512</v>
+        <v>160.3986155648009</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>147.8134564814914</v>
       </c>
       <c r="D16" t="n">
-        <v>134.0293426087263</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>131.8478322370831</v>
+        <v>127.0005980294328</v>
       </c>
       <c r="F16" t="n">
-        <v>130.8349176134452</v>
+        <v>125.9876834057948</v>
       </c>
       <c r="G16" t="n">
-        <v>151.4396778495422</v>
+        <v>146.5924436418918</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>125.3216502971844</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>76.91905579270167</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>15.42894301302634</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>170.3356607143055</v>
       </c>
       <c r="T16" t="n">
-        <v>46.90778201346244</v>
+        <v>200.1155846590328</v>
       </c>
       <c r="U16" t="n">
-        <v>271.6257077961268</v>
+        <v>266.7784735884765</v>
       </c>
       <c r="V16" t="n">
-        <v>237.5515129143419</v>
+        <v>232.7042787066916</v>
       </c>
       <c r="W16" t="n">
-        <v>271.936867927105</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>211.1235249795511</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>203.9985229426087</v>
+        <v>199.1512887349584</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>321.1725746354019</v>
+        <v>316.3253404277516</v>
       </c>
       <c r="C17" t="n">
-        <v>303.7116247429289</v>
+        <v>298.8643905352786</v>
       </c>
       <c r="D17" t="n">
-        <v>293.1217745926043</v>
+        <v>121.4345074177272</v>
       </c>
       <c r="E17" t="n">
-        <v>320.3691030441831</v>
+        <v>315.5218688365328</v>
       </c>
       <c r="F17" t="n">
-        <v>345.3147787136328</v>
+        <v>340.4675445059825</v>
       </c>
       <c r="G17" t="n">
-        <v>349.3604586253748</v>
+        <v>344.5132244177245</v>
       </c>
       <c r="H17" t="n">
-        <v>233.0464973592418</v>
+        <v>228.1992631515915</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>47.62649476009722</v>
+        <v>42.77926055244686</v>
       </c>
       <c r="T17" t="n">
-        <v>142.3567031115415</v>
+        <v>137.5094689038912</v>
       </c>
       <c r="U17" t="n">
-        <v>130.1840548561513</v>
+        <v>184.586670723173</v>
       </c>
       <c r="V17" t="n">
-        <v>266.1909914420563</v>
+        <v>261.3437572344059</v>
       </c>
       <c r="W17" t="n">
-        <v>287.6797016893344</v>
+        <v>282.832467481684</v>
       </c>
       <c r="X17" t="n">
-        <v>308.1698336503904</v>
+        <v>303.3225994427401</v>
       </c>
       <c r="Y17" t="n">
-        <v>324.6766716279749</v>
+        <v>319.8294374203246</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>118.2707131538587</v>
+        <v>113.4234789462083</v>
       </c>
       <c r="C19" t="n">
-        <v>105.6855540705492</v>
+        <v>100.8383198628989</v>
       </c>
       <c r="D19" t="n">
-        <v>87.05420599013372</v>
+        <v>82.20697178248338</v>
       </c>
       <c r="E19" t="n">
-        <v>84.87269561849054</v>
+        <v>80.02546141084019</v>
       </c>
       <c r="F19" t="n">
-        <v>83.85978099485261</v>
+        <v>79.01254678720227</v>
       </c>
       <c r="G19" t="n">
-        <v>104.4645412309496</v>
+        <v>99.61730702329925</v>
       </c>
       <c r="H19" t="n">
-        <v>83.19374788624215</v>
+        <v>78.3465136785918</v>
       </c>
       <c r="I19" t="n">
-        <v>34.79115338175946</v>
+        <v>29.94391917410912</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>27.3708856419687</v>
+        <v>22.52365143431835</v>
       </c>
       <c r="S19" t="n">
-        <v>128.2077583033632</v>
+        <v>123.3605240957129</v>
       </c>
       <c r="T19" t="n">
-        <v>157.9876822480906</v>
+        <v>153.1404480404402</v>
       </c>
       <c r="U19" t="n">
-        <v>224.6505711775342</v>
+        <v>219.8033369698839</v>
       </c>
       <c r="V19" t="n">
-        <v>190.5763762957494</v>
+        <v>185.729142088099</v>
       </c>
       <c r="W19" t="n">
-        <v>224.9617313085124</v>
+        <v>220.114497100862</v>
       </c>
       <c r="X19" t="n">
-        <v>164.1483883609585</v>
+        <v>159.3011541533082</v>
       </c>
       <c r="Y19" t="n">
-        <v>157.0233863240161</v>
+        <v>152.1761521163658</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>261.9227245607304</v>
+        <v>316.3253404277516</v>
       </c>
       <c r="C20" t="n">
-        <v>303.7116247429289</v>
+        <v>298.8643905352786</v>
       </c>
       <c r="D20" t="n">
-        <v>293.1217745926043</v>
+        <v>288.274540384954</v>
       </c>
       <c r="E20" t="n">
-        <v>320.3691030441831</v>
+        <v>315.5218688365328</v>
       </c>
       <c r="F20" t="n">
-        <v>345.3147787136328</v>
+        <v>340.4675445059825</v>
       </c>
       <c r="G20" t="n">
-        <v>349.3604586253748</v>
+        <v>344.5132244177245</v>
       </c>
       <c r="H20" t="n">
-        <v>233.0464973592418</v>
+        <v>228.1992631515915</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>47.6264947600972</v>
+        <v>42.77926055244686</v>
       </c>
       <c r="T20" t="n">
-        <v>142.3567031115415</v>
+        <v>137.5094689038912</v>
       </c>
       <c r="U20" t="n">
-        <v>189.4339049308234</v>
+        <v>17.74663775594574</v>
       </c>
       <c r="V20" t="n">
-        <v>266.1909914420563</v>
+        <v>261.3437572344059</v>
       </c>
       <c r="W20" t="n">
-        <v>287.6797016893344</v>
+        <v>282.832467481684</v>
       </c>
       <c r="X20" t="n">
-        <v>308.1698336503904</v>
+        <v>303.3225994427401</v>
       </c>
       <c r="Y20" t="n">
-        <v>324.6766716279749</v>
+        <v>319.8294374203246</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>118.2707131538587</v>
+        <v>113.4234789462083</v>
       </c>
       <c r="C22" t="n">
-        <v>105.6855540705492</v>
+        <v>100.8383198628989</v>
       </c>
       <c r="D22" t="n">
-        <v>87.05420599013372</v>
+        <v>82.20697178248338</v>
       </c>
       <c r="E22" t="n">
-        <v>84.87269561849054</v>
+        <v>80.02546141084019</v>
       </c>
       <c r="F22" t="n">
-        <v>83.85978099485261</v>
+        <v>79.01254678720227</v>
       </c>
       <c r="G22" t="n">
-        <v>104.4645412309496</v>
+        <v>99.61730702329925</v>
       </c>
       <c r="H22" t="n">
-        <v>83.19374788624215</v>
+        <v>78.3465136785918</v>
       </c>
       <c r="I22" t="n">
-        <v>34.79115338175946</v>
+        <v>29.94391917410912</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>27.3708856419687</v>
+        <v>22.52365143431835</v>
       </c>
       <c r="S22" t="n">
-        <v>128.2077583033632</v>
+        <v>123.3605240957129</v>
       </c>
       <c r="T22" t="n">
-        <v>157.9876822480906</v>
+        <v>153.1404480404402</v>
       </c>
       <c r="U22" t="n">
-        <v>224.6505711775342</v>
+        <v>219.8033369698839</v>
       </c>
       <c r="V22" t="n">
-        <v>190.5763762957494</v>
+        <v>185.729142088099</v>
       </c>
       <c r="W22" t="n">
-        <v>224.9617313085124</v>
+        <v>220.114497100862</v>
       </c>
       <c r="X22" t="n">
-        <v>164.1483883609585</v>
+        <v>159.3011541533082</v>
       </c>
       <c r="Y22" t="n">
-        <v>157.0233863240161</v>
+        <v>152.1761521163658</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>321.1725746354019</v>
+        <v>316.3253404277516</v>
       </c>
       <c r="C23" t="n">
-        <v>303.7116247429289</v>
+        <v>298.8643905352786</v>
       </c>
       <c r="D23" t="n">
-        <v>293.1217745926043</v>
+        <v>288.274540384954</v>
       </c>
       <c r="E23" t="n">
-        <v>320.3691030441831</v>
+        <v>315.5218688365328</v>
       </c>
       <c r="F23" t="n">
-        <v>345.3147787136328</v>
+        <v>340.4675445059825</v>
       </c>
       <c r="G23" t="n">
-        <v>349.3604586253748</v>
+        <v>344.5132244177245</v>
       </c>
       <c r="H23" t="n">
-        <v>233.0464973592418</v>
+        <v>228.1992631515915</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>47.6264947600972</v>
+        <v>42.77926055244686</v>
       </c>
       <c r="T23" t="n">
-        <v>142.3567031115415</v>
+        <v>137.5094689038912</v>
       </c>
       <c r="U23" t="n">
-        <v>189.4339049308234</v>
+        <v>184.586670723173</v>
       </c>
       <c r="V23" t="n">
-        <v>266.1909914420563</v>
+        <v>261.3437572344059</v>
       </c>
       <c r="W23" t="n">
-        <v>287.6797016893344</v>
+        <v>282.832467481684</v>
       </c>
       <c r="X23" t="n">
-        <v>308.1698336503904</v>
+        <v>303.3225994427401</v>
       </c>
       <c r="Y23" t="n">
-        <v>324.6766716279749</v>
+        <v>319.8294374203246</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>118.2707131538587</v>
+        <v>113.4234789462083</v>
       </c>
       <c r="C25" t="n">
-        <v>105.6855540705492</v>
+        <v>100.8383198628989</v>
       </c>
       <c r="D25" t="n">
-        <v>87.05420599013372</v>
+        <v>82.20697178248338</v>
       </c>
       <c r="E25" t="n">
-        <v>84.87269561849054</v>
+        <v>80.02546141084019</v>
       </c>
       <c r="F25" t="n">
-        <v>83.85978099485261</v>
+        <v>79.01254678720227</v>
       </c>
       <c r="G25" t="n">
-        <v>104.4645412309496</v>
+        <v>99.61730702329925</v>
       </c>
       <c r="H25" t="n">
-        <v>83.19374788624215</v>
+        <v>78.3465136785918</v>
       </c>
       <c r="I25" t="n">
-        <v>34.79115338175946</v>
+        <v>29.94391917410912</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>27.3708856419687</v>
+        <v>22.52365143431835</v>
       </c>
       <c r="S25" t="n">
-        <v>128.2077583033632</v>
+        <v>123.3605240957129</v>
       </c>
       <c r="T25" t="n">
-        <v>157.9876822480906</v>
+        <v>153.1404480404402</v>
       </c>
       <c r="U25" t="n">
-        <v>224.6505711775342</v>
+        <v>219.8033369698839</v>
       </c>
       <c r="V25" t="n">
-        <v>190.5763762957494</v>
+        <v>185.729142088099</v>
       </c>
       <c r="W25" t="n">
-        <v>224.9617313085124</v>
+        <v>220.114497100862</v>
       </c>
       <c r="X25" t="n">
-        <v>164.1483883609585</v>
+        <v>159.3011541533082</v>
       </c>
       <c r="Y25" t="n">
-        <v>157.0233863240161</v>
+        <v>152.1761521163658</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2792,22 +2792,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
         <v>204.0200353403094</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996209</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572818</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124549</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3013,7 +3013,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
         <v>171.6095167335022</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,16 +3667,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433872</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I40" t="n">
         <v>49.37728379124555</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1690.321813722701</v>
+        <v>1841.601218699136</v>
       </c>
       <c r="C11" t="n">
-        <v>1336.092761842376</v>
+        <v>1492.268362988155</v>
       </c>
       <c r="D11" t="n">
-        <v>992.5605282957123</v>
+        <v>1153.632325610835</v>
       </c>
       <c r="E11" t="n">
-        <v>992.5605282957123</v>
+        <v>1153.632325610835</v>
       </c>
       <c r="F11" t="n">
-        <v>596.3080885661916</v>
+        <v>762.2760820506589</v>
       </c>
       <c r="G11" t="n">
-        <v>376.6256854637738</v>
+        <v>366.8332931250861</v>
       </c>
       <c r="H11" t="n">
-        <v>93.7755501326279</v>
+        <v>88.87935396328399</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3294.089622562697</v>
       </c>
       <c r="T11" t="n">
-        <v>3134.361539053481</v>
+        <v>3107.741536176349</v>
       </c>
       <c r="U11" t="n">
-        <v>3134.361539053481</v>
+        <v>2873.840720679616</v>
       </c>
       <c r="V11" t="n">
-        <v>3134.361539053481</v>
+        <v>2562.407494565476</v>
       </c>
       <c r="W11" t="n">
-        <v>2796.326348843453</v>
+        <v>2562.407494565476</v>
       </c>
       <c r="X11" t="n">
-        <v>2437.59405564246</v>
+        <v>2208.571397533827</v>
       </c>
       <c r="Y11" t="n">
-        <v>2062.188188726735</v>
+        <v>2208.571397533827</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>704.0263317339495</v>
+        <v>954.2060518357923</v>
       </c>
       <c r="C13" t="n">
-        <v>549.8236138661296</v>
+        <v>804.8995301373161</v>
       </c>
       <c r="D13" t="n">
-        <v>414.4404395138807</v>
+        <v>674.4125519544111</v>
       </c>
       <c r="E13" t="n">
-        <v>281.2608109915745</v>
+        <v>546.1291196014488</v>
       </c>
       <c r="F13" t="n">
-        <v>149.1043285537511</v>
+        <v>418.8688333329692</v>
       </c>
       <c r="G13" t="n">
-        <v>149.1043285537511</v>
+        <v>270.7956579371188</v>
       </c>
       <c r="H13" t="n">
-        <v>149.1043285537511</v>
+        <v>144.2081323844073</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>126.0750179845102</v>
+        <v>130.8737798500841</v>
       </c>
       <c r="K13" t="n">
-        <v>344.5024700387776</v>
+        <v>354.0999937699255</v>
       </c>
       <c r="L13" t="n">
-        <v>675.5025375926649</v>
+        <v>689.8988231893866</v>
       </c>
       <c r="M13" t="n">
-        <v>1034.099852297605</v>
+        <v>1053.294899759901</v>
       </c>
       <c r="N13" t="n">
-        <v>1389.948498108861</v>
+        <v>1413.94230743673</v>
       </c>
       <c r="O13" t="n">
-        <v>1703.718366134666</v>
+        <v>1732.510937328109</v>
       </c>
       <c r="P13" t="n">
-        <v>1950.766135673716</v>
+        <v>1984.357468732733</v>
       </c>
       <c r="Q13" t="n">
-        <v>2042.816700931622</v>
+        <v>2081.206795856212</v>
       </c>
       <c r="R13" t="n">
-        <v>1967.719708749237</v>
+        <v>2011.005999843171</v>
       </c>
       <c r="S13" t="n">
-        <v>1790.76728963615</v>
+        <v>1838.949776899428</v>
       </c>
       <c r="T13" t="n">
-        <v>1790.76728963615</v>
+        <v>1636.812822698385</v>
       </c>
       <c r="U13" t="n">
-        <v>1516.397887821881</v>
+        <v>1633.516368226008</v>
       </c>
       <c r="V13" t="n">
-        <v>1276.446864676081</v>
+        <v>1633.516368226008</v>
       </c>
       <c r="W13" t="n">
-        <v>1077.000445587546</v>
+        <v>1363.728859418478</v>
       </c>
       <c r="X13" t="n">
-        <v>1077.000445587546</v>
+        <v>1155.368969749892</v>
       </c>
       <c r="Y13" t="n">
-        <v>870.9413315041023</v>
+        <v>954.2060518357923</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1843.714962014755</v>
+        <v>1078.807745715072</v>
       </c>
       <c r="C14" t="n">
-        <v>1489.48591013443</v>
+        <v>729.4748900040906</v>
       </c>
       <c r="D14" t="n">
-        <v>1145.953676587766</v>
+        <v>390.8388526267708</v>
       </c>
       <c r="E14" t="n">
-        <v>1145.953676587766</v>
+        <v>390.8388526267708</v>
       </c>
       <c r="F14" t="n">
-        <v>749.7012368582459</v>
+        <v>344.4660555939855</v>
       </c>
       <c r="G14" t="n">
-        <v>349.3622517633294</v>
+        <v>344.4660555939855</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3230.048618196353</v>
+        <v>3234.944814365696</v>
       </c>
       <c r="T14" t="n">
-        <v>3228.678242713294</v>
+        <v>3048.596727979349</v>
       </c>
       <c r="U14" t="n">
-        <v>3228.678242713294</v>
+        <v>2814.695912482616</v>
       </c>
       <c r="V14" t="n">
-        <v>2912.34882042981</v>
+        <v>2503.262686368476</v>
       </c>
       <c r="W14" t="n">
-        <v>2574.313630219783</v>
+        <v>2170.123692327793</v>
       </c>
       <c r="X14" t="n">
-        <v>2215.58133701879</v>
+        <v>1816.287595296144</v>
       </c>
       <c r="Y14" t="n">
-        <v>2215.58133701879</v>
+        <v>1445.777924549762</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5346,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>620.200773309756</v>
+        <v>823.7190736528873</v>
       </c>
       <c r="C16" t="n">
-        <v>620.200773309756</v>
+        <v>674.4125519544111</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8175989575071</v>
+        <v>674.4125519544111</v>
       </c>
       <c r="E16" t="n">
-        <v>351.6379704352009</v>
+        <v>546.1291196014488</v>
       </c>
       <c r="F16" t="n">
-        <v>219.4814879973775</v>
+        <v>418.8688333329692</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>270.7956579371188</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>144.2081323844073</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>126.0750179845102</v>
+        <v>130.8737798500839</v>
       </c>
       <c r="K16" t="n">
-        <v>344.5024700387777</v>
+        <v>354.0999937699253</v>
       </c>
       <c r="L16" t="n">
-        <v>675.502537592665</v>
+        <v>689.8988231893865</v>
       </c>
       <c r="M16" t="n">
-        <v>1034.099852297605</v>
+        <v>1053.294899759901</v>
       </c>
       <c r="N16" t="n">
-        <v>1389.948498108861</v>
+        <v>1413.94230743673</v>
       </c>
       <c r="O16" t="n">
-        <v>1703.718366134666</v>
+        <v>1732.510937328109</v>
       </c>
       <c r="P16" t="n">
-        <v>1950.766135673716</v>
+        <v>1984.357468732733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2042.816700931622</v>
+        <v>2081.206795856213</v>
       </c>
       <c r="R16" t="n">
-        <v>2042.816700931622</v>
+        <v>2065.622004933964</v>
       </c>
       <c r="S16" t="n">
-        <v>2042.816700931622</v>
+        <v>1893.565781990221</v>
       </c>
       <c r="T16" t="n">
-        <v>1995.435102938226</v>
+        <v>1691.428827789178</v>
       </c>
       <c r="U16" t="n">
-        <v>1721.065701123956</v>
+        <v>1421.955622144252</v>
       </c>
       <c r="V16" t="n">
-        <v>1481.114677978156</v>
+        <v>1186.900795167796</v>
       </c>
       <c r="W16" t="n">
-        <v>1206.430973001282</v>
+        <v>1186.900795167796</v>
       </c>
       <c r="X16" t="n">
-        <v>993.1748871633521</v>
+        <v>1186.900795167796</v>
       </c>
       <c r="Y16" t="n">
-        <v>787.1157730799089</v>
+        <v>985.7378772536963</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1939.275796323876</v>
+        <v>1737.756523302994</v>
       </c>
       <c r="C17" t="n">
-        <v>1632.496377391625</v>
+        <v>1435.873300540087</v>
       </c>
       <c r="D17" t="n">
-        <v>1336.413776793034</v>
+        <v>1313.212181936322</v>
       </c>
       <c r="E17" t="n">
-        <v>1012.80862220295</v>
+        <v>994.503223515582</v>
       </c>
       <c r="F17" t="n">
-        <v>664.0058154215033</v>
+        <v>650.5966129034784</v>
       </c>
       <c r="G17" t="n">
-        <v>311.1164632746601</v>
+        <v>302.6034569259789</v>
       </c>
       <c r="H17" t="n">
-        <v>75.71596089158759</v>
+        <v>72.09915071225014</v>
       </c>
       <c r="I17" t="n">
-        <v>75.71596089158759</v>
+        <v>72.09915071225014</v>
       </c>
       <c r="J17" t="n">
-        <v>264.595091850613</v>
+        <v>260.9782816712756</v>
       </c>
       <c r="K17" t="n">
-        <v>598.4144655404596</v>
+        <v>594.797655361122</v>
       </c>
       <c r="L17" t="n">
-        <v>1049.448678788868</v>
+        <v>1045.831868609531</v>
       </c>
       <c r="M17" t="n">
-        <v>1582.980583460793</v>
+        <v>1579.363773281455</v>
       </c>
       <c r="N17" t="n">
-        <v>2138.696343906009</v>
+        <v>2126.142590340238</v>
       </c>
       <c r="O17" t="n">
-        <v>3018.660994235463</v>
+        <v>2629.115061219575</v>
       </c>
       <c r="P17" t="n">
-        <v>3413.435360592642</v>
+        <v>3297.654107300022</v>
       </c>
       <c r="Q17" t="n">
-        <v>3661.721722348324</v>
+        <v>3545.940469055704</v>
       </c>
       <c r="R17" t="n">
-        <v>3785.798044579379</v>
+        <v>3604.957535612507</v>
       </c>
       <c r="S17" t="n">
-        <v>3737.690474114635</v>
+        <v>3561.746161317106</v>
       </c>
       <c r="T17" t="n">
-        <v>3593.895824507017</v>
+        <v>3422.847707878832</v>
       </c>
       <c r="U17" t="n">
-        <v>3462.396779197773</v>
+        <v>3236.396525330172</v>
       </c>
       <c r="V17" t="n">
-        <v>3193.516989862363</v>
+        <v>2972.412932164106</v>
       </c>
       <c r="W17" t="n">
-        <v>2902.931432600409</v>
+        <v>2686.723571071496</v>
       </c>
       <c r="X17" t="n">
-        <v>2591.648772347489</v>
+        <v>2380.33710698792</v>
       </c>
       <c r="Y17" t="n">
-        <v>2263.692538379838</v>
+        <v>2057.277069189612</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>950.7476989405128</v>
+        <v>947.1308887611752</v>
       </c>
       <c r="C18" t="n">
-        <v>776.2946696593858</v>
+        <v>772.6778594800483</v>
       </c>
       <c r="D18" t="n">
-        <v>627.3602599981346</v>
+        <v>623.743449818797</v>
       </c>
       <c r="E18" t="n">
-        <v>468.122804992679</v>
+        <v>464.5059948133415</v>
       </c>
       <c r="F18" t="n">
-        <v>321.588247019564</v>
+        <v>317.9714368402265</v>
       </c>
       <c r="G18" t="n">
-        <v>185.2251468521821</v>
+        <v>181.6083366728446</v>
       </c>
       <c r="H18" t="n">
-        <v>94.72325249004962</v>
+        <v>91.10644231071217</v>
       </c>
       <c r="I18" t="n">
-        <v>75.71596089158759</v>
+        <v>72.09915071225014</v>
       </c>
       <c r="J18" t="n">
-        <v>169.3932303822051</v>
+        <v>165.7764202028675</v>
       </c>
       <c r="K18" t="n">
-        <v>407.6574293625523</v>
+        <v>404.0406191832146</v>
       </c>
       <c r="L18" t="n">
-        <v>774.3555896752176</v>
+        <v>770.73877949588</v>
       </c>
       <c r="M18" t="n">
-        <v>1221.631914897534</v>
+        <v>1218.015104718196</v>
       </c>
       <c r="N18" t="n">
-        <v>1695.154958451988</v>
+        <v>1691.53814827265</v>
       </c>
       <c r="O18" t="n">
-        <v>2106.116237870043</v>
+        <v>2102.499427690705</v>
       </c>
       <c r="P18" t="n">
-        <v>2416.615829346146</v>
+        <v>2412.999019166808</v>
       </c>
       <c r="Q18" t="n">
-        <v>2574.257386992746</v>
+        <v>2570.640576813408</v>
       </c>
       <c r="R18" t="n">
-        <v>2574.113033585261</v>
+        <v>2570.496223405923</v>
       </c>
       <c r="S18" t="n">
-        <v>2444.675147078741</v>
+        <v>2441.058336899403</v>
       </c>
       <c r="T18" t="n">
-        <v>2252.032146756596</v>
+        <v>2248.415336577259</v>
       </c>
       <c r="U18" t="n">
-        <v>2023.964299891012</v>
+        <v>2020.347489711674</v>
       </c>
       <c r="V18" t="n">
-        <v>1788.812191659269</v>
+        <v>1785.195381479931</v>
       </c>
       <c r="W18" t="n">
-        <v>1534.574834931067</v>
+        <v>1530.95802475173</v>
       </c>
       <c r="X18" t="n">
-        <v>1326.723334725535</v>
+        <v>1323.106524546197</v>
       </c>
       <c r="Y18" t="n">
-        <v>1118.963035960581</v>
+        <v>1115.346225781243</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>665.53583884409</v>
+        <v>627.6456554793459</v>
       </c>
       <c r="C19" t="n">
-        <v>558.7827539243433</v>
+        <v>525.7887667289431</v>
       </c>
       <c r="D19" t="n">
-        <v>470.8492125201678</v>
+        <v>442.7514214941114</v>
       </c>
       <c r="E19" t="n">
-        <v>385.1192169459349</v>
+        <v>361.9176220892223</v>
       </c>
       <c r="F19" t="n">
-        <v>300.4123674561848</v>
+        <v>282.106968768816</v>
       </c>
       <c r="G19" t="n">
-        <v>194.892628839064</v>
+        <v>181.483426321039</v>
       </c>
       <c r="H19" t="n">
-        <v>110.858540065082</v>
+        <v>102.3455337164008</v>
       </c>
       <c r="I19" t="n">
-        <v>75.71596089158759</v>
+        <v>72.09915071225014</v>
       </c>
       <c r="J19" t="n">
-        <v>120.8385933385231</v>
+        <v>117.2217831591857</v>
       </c>
       <c r="K19" t="n">
-        <v>324.8257762873995</v>
+        <v>379.1774684564228</v>
       </c>
       <c r="L19" t="n">
-        <v>702.3312290936935</v>
+        <v>695.7372669049189</v>
       </c>
       <c r="M19" t="n">
-        <v>1060.904607035508</v>
+        <v>1039.894312504468</v>
       </c>
       <c r="N19" t="n">
-        <v>1402.312983741373</v>
+        <v>1381.302689210333</v>
       </c>
       <c r="O19" t="n">
-        <v>1762.588237019584</v>
+        <v>1680.632288130746</v>
       </c>
       <c r="P19" t="n">
-        <v>1995.195737453244</v>
+        <v>1913.239788564405</v>
       </c>
       <c r="Q19" t="n">
-        <v>2072.806033605758</v>
+        <v>1990.85008471692</v>
       </c>
       <c r="R19" t="n">
-        <v>2045.158674371447</v>
+        <v>1968.098921651952</v>
       </c>
       <c r="S19" t="n">
-        <v>1915.655888206433</v>
+        <v>1843.492331656283</v>
       </c>
       <c r="T19" t="n">
-        <v>1756.07237078412</v>
+        <v>1688.805010403313</v>
       </c>
       <c r="U19" t="n">
-        <v>1529.152601917923</v>
+        <v>1466.78143770646</v>
       </c>
       <c r="V19" t="n">
-        <v>1336.651211720197</v>
+        <v>1279.176243678078</v>
       </c>
       <c r="W19" t="n">
-        <v>1109.417139691396</v>
+        <v>1056.838367818621</v>
       </c>
       <c r="X19" t="n">
-        <v>943.6106868015393</v>
+        <v>895.9281110981077</v>
       </c>
       <c r="Y19" t="n">
-        <v>785.0012056661694</v>
+        <v>742.2148261320816</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1939.275796323875</v>
+        <v>1906.281809128477</v>
       </c>
       <c r="C20" t="n">
-        <v>1632.496377391625</v>
+        <v>1604.398586365569</v>
       </c>
       <c r="D20" t="n">
-        <v>1336.413776793035</v>
+        <v>1313.212181936323</v>
       </c>
       <c r="E20" t="n">
-        <v>1012.808622202951</v>
+        <v>994.5032235155825</v>
       </c>
       <c r="F20" t="n">
-        <v>664.0058154215035</v>
+        <v>650.5966129034789</v>
       </c>
       <c r="G20" t="n">
-        <v>311.1164632746601</v>
+        <v>302.6034569259789</v>
       </c>
       <c r="H20" t="n">
-        <v>75.71596089158759</v>
+        <v>72.09915071225014</v>
       </c>
       <c r="I20" t="n">
-        <v>75.71596089158759</v>
+        <v>72.09915071225014</v>
       </c>
       <c r="J20" t="n">
-        <v>264.595091850613</v>
+        <v>260.9782816712756</v>
       </c>
       <c r="K20" t="n">
-        <v>598.4144655404596</v>
+        <v>594.797655361122</v>
       </c>
       <c r="L20" t="n">
-        <v>1049.448678788868</v>
+        <v>1045.831868609531</v>
       </c>
       <c r="M20" t="n">
-        <v>1986.433694822265</v>
+        <v>1579.363773281455</v>
       </c>
       <c r="N20" t="n">
-        <v>2533.212511881047</v>
+        <v>2126.142590340238</v>
       </c>
       <c r="O20" t="n">
-        <v>3036.184982760384</v>
+        <v>2629.115061219575</v>
       </c>
       <c r="P20" t="n">
-        <v>3478.494616266894</v>
+        <v>3297.654107300022</v>
       </c>
       <c r="Q20" t="n">
-        <v>3726.780978022577</v>
+        <v>3545.940469055704</v>
       </c>
       <c r="R20" t="n">
-        <v>3785.798044579379</v>
+        <v>3604.957535612507</v>
       </c>
       <c r="S20" t="n">
-        <v>3737.690474114635</v>
+        <v>3561.746161317106</v>
       </c>
       <c r="T20" t="n">
-        <v>3593.895824507017</v>
+        <v>3422.847707878832</v>
       </c>
       <c r="U20" t="n">
-        <v>3402.548445789013</v>
+        <v>3404.921811155655</v>
       </c>
       <c r="V20" t="n">
-        <v>3133.668656453603</v>
+        <v>3140.938217989588</v>
       </c>
       <c r="W20" t="n">
-        <v>2843.083099191649</v>
+        <v>2855.248856896978</v>
       </c>
       <c r="X20" t="n">
-        <v>2531.800438938729</v>
+        <v>2548.862392813402</v>
       </c>
       <c r="Y20" t="n">
-        <v>2203.844204971077</v>
+        <v>2225.802355015095</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>950.7476989405128</v>
+        <v>947.1308887611752</v>
       </c>
       <c r="C21" t="n">
-        <v>776.2946696593858</v>
+        <v>772.6778594800483</v>
       </c>
       <c r="D21" t="n">
-        <v>627.3602599981346</v>
+        <v>623.743449818797</v>
       </c>
       <c r="E21" t="n">
-        <v>468.122804992679</v>
+        <v>464.5059948133415</v>
       </c>
       <c r="F21" t="n">
-        <v>321.588247019564</v>
+        <v>317.9714368402265</v>
       </c>
       <c r="G21" t="n">
-        <v>185.2251468521821</v>
+        <v>181.6083366728446</v>
       </c>
       <c r="H21" t="n">
-        <v>94.72325249004962</v>
+        <v>91.10644231071217</v>
       </c>
       <c r="I21" t="n">
-        <v>75.71596089158759</v>
+        <v>72.09915071225014</v>
       </c>
       <c r="J21" t="n">
-        <v>169.3932303822049</v>
+        <v>165.7764202028675</v>
       </c>
       <c r="K21" t="n">
-        <v>407.6574293625521</v>
+        <v>404.0406191832146</v>
       </c>
       <c r="L21" t="n">
-        <v>774.3555896752176</v>
+        <v>770.73877949588</v>
       </c>
       <c r="M21" t="n">
-        <v>1221.631914897534</v>
+        <v>1218.015104718196</v>
       </c>
       <c r="N21" t="n">
-        <v>1695.154958451988</v>
+        <v>1691.53814827265</v>
       </c>
       <c r="O21" t="n">
-        <v>2106.116237870043</v>
+        <v>2102.499427690705</v>
       </c>
       <c r="P21" t="n">
-        <v>2416.615829346146</v>
+        <v>2412.999019166808</v>
       </c>
       <c r="Q21" t="n">
-        <v>2574.257386992746</v>
+        <v>2570.640576813408</v>
       </c>
       <c r="R21" t="n">
-        <v>2574.113033585261</v>
+        <v>2570.496223405923</v>
       </c>
       <c r="S21" t="n">
-        <v>2444.675147078741</v>
+        <v>2441.058336899403</v>
       </c>
       <c r="T21" t="n">
-        <v>2252.032146756596</v>
+        <v>2248.415336577259</v>
       </c>
       <c r="U21" t="n">
-        <v>2023.964299891012</v>
+        <v>2020.347489711674</v>
       </c>
       <c r="V21" t="n">
-        <v>1788.812191659269</v>
+        <v>1785.195381479931</v>
       </c>
       <c r="W21" t="n">
-        <v>1534.574834931067</v>
+        <v>1530.95802475173</v>
       </c>
       <c r="X21" t="n">
-        <v>1326.723334725535</v>
+        <v>1323.106524546197</v>
       </c>
       <c r="Y21" t="n">
-        <v>1118.963035960581</v>
+        <v>1115.346225781243</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>665.53583884409</v>
+        <v>627.6456554793459</v>
       </c>
       <c r="C22" t="n">
-        <v>558.7827539243433</v>
+        <v>525.7887667289431</v>
       </c>
       <c r="D22" t="n">
-        <v>470.8492125201678</v>
+        <v>442.7514214941114</v>
       </c>
       <c r="E22" t="n">
-        <v>385.1192169459349</v>
+        <v>361.9176220892223</v>
       </c>
       <c r="F22" t="n">
-        <v>300.4123674561848</v>
+        <v>282.106968768816</v>
       </c>
       <c r="G22" t="n">
-        <v>194.892628839064</v>
+        <v>181.483426321039</v>
       </c>
       <c r="H22" t="n">
-        <v>110.858540065082</v>
+        <v>102.3455337164008</v>
       </c>
       <c r="I22" t="n">
-        <v>75.71596089158759</v>
+        <v>72.09915071225014</v>
       </c>
       <c r="J22" t="n">
-        <v>181.784247696321</v>
+        <v>175.1902855075464</v>
       </c>
       <c r="K22" t="n">
-        <v>385.7714306451974</v>
+        <v>379.1774684564228</v>
       </c>
       <c r="L22" t="n">
-        <v>702.3312290936935</v>
+        <v>695.7372669049189</v>
       </c>
       <c r="M22" t="n">
-        <v>1107.43392905104</v>
+        <v>1039.894312504468</v>
       </c>
       <c r="N22" t="n">
-        <v>1448.842305756905</v>
+        <v>1381.302689210333</v>
       </c>
       <c r="O22" t="n">
-        <v>1748.171904677318</v>
+        <v>1680.632288130746</v>
       </c>
       <c r="P22" t="n">
-        <v>1995.195737453244</v>
+        <v>1913.239788564405</v>
       </c>
       <c r="Q22" t="n">
-        <v>2072.806033605758</v>
+        <v>1990.85008471692</v>
       </c>
       <c r="R22" t="n">
-        <v>2045.158674371447</v>
+        <v>1968.098921651952</v>
       </c>
       <c r="S22" t="n">
-        <v>1915.655888206433</v>
+        <v>1843.492331656283</v>
       </c>
       <c r="T22" t="n">
-        <v>1756.07237078412</v>
+        <v>1688.805010403313</v>
       </c>
       <c r="U22" t="n">
-        <v>1529.152601917923</v>
+        <v>1466.78143770646</v>
       </c>
       <c r="V22" t="n">
-        <v>1336.651211720197</v>
+        <v>1279.176243678078</v>
       </c>
       <c r="W22" t="n">
-        <v>1109.417139691396</v>
+        <v>1056.838367818621</v>
       </c>
       <c r="X22" t="n">
-        <v>943.6106868015393</v>
+        <v>895.9281110981077</v>
       </c>
       <c r="Y22" t="n">
-        <v>785.0012056661694</v>
+        <v>742.2148261320816</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1940.497190883239</v>
+        <v>1909.721100675935</v>
       </c>
       <c r="C23" t="n">
-        <v>1633.717771950987</v>
+        <v>1607.837877913027</v>
       </c>
       <c r="D23" t="n">
-        <v>1337.635171352397</v>
+        <v>1316.651473483781</v>
       </c>
       <c r="E23" t="n">
-        <v>1014.030016762313</v>
+        <v>997.9425150630404</v>
       </c>
       <c r="F23" t="n">
-        <v>665.2272099808656</v>
+        <v>654.0359044509369</v>
       </c>
       <c r="G23" t="n">
-        <v>312.3378578340226</v>
+        <v>306.0427484734378</v>
       </c>
       <c r="H23" t="n">
-        <v>76.93735545095002</v>
+        <v>75.53844225970894</v>
       </c>
       <c r="I23" t="n">
-        <v>76.93735545095002</v>
+        <v>75.53844225970894</v>
       </c>
       <c r="J23" t="n">
-        <v>265.8164864099755</v>
+        <v>431.4564423399266</v>
       </c>
       <c r="K23" t="n">
-        <v>733.4803925692672</v>
+        <v>765.2758160297731</v>
       </c>
       <c r="L23" t="n">
-        <v>1184.514605817676</v>
+        <v>1216.310029278182</v>
       </c>
       <c r="M23" t="n">
-        <v>1718.046510489601</v>
+        <v>1749.841933950107</v>
       </c>
       <c r="N23" t="n">
-        <v>2264.825327548383</v>
+        <v>2296.620751008889</v>
       </c>
       <c r="O23" t="n">
-        <v>3144.789977877838</v>
+        <v>2799.593221888226</v>
       </c>
       <c r="P23" t="n">
-        <v>3539.564344235016</v>
+        <v>3194.367588245404</v>
       </c>
       <c r="Q23" t="n">
-        <v>3787.850705990698</v>
+        <v>3652.845790754392</v>
       </c>
       <c r="R23" t="n">
-        <v>3846.867772547501</v>
+        <v>3776.922112985447</v>
       </c>
       <c r="S23" t="n">
-        <v>3798.760202082756</v>
+        <v>3733.710738690046</v>
       </c>
       <c r="T23" t="n">
-        <v>3654.965552475138</v>
+        <v>3594.812285251772</v>
       </c>
       <c r="U23" t="n">
-        <v>3463.618173757135</v>
+        <v>3408.361102703113</v>
       </c>
       <c r="V23" t="n">
-        <v>3194.738384421725</v>
+        <v>3144.377509537046</v>
       </c>
       <c r="W23" t="n">
-        <v>2904.152827159771</v>
+        <v>2858.688148444436</v>
       </c>
       <c r="X23" t="n">
-        <v>2592.870166906851</v>
+        <v>2552.30168436086</v>
       </c>
       <c r="Y23" t="n">
-        <v>2264.9139329392</v>
+        <v>2229.241646562552</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>951.9690934998752</v>
+        <v>950.5701803086341</v>
       </c>
       <c r="C24" t="n">
-        <v>777.5160642187482</v>
+        <v>776.1171510275071</v>
       </c>
       <c r="D24" t="n">
-        <v>628.5816545574969</v>
+        <v>627.1827413662559</v>
       </c>
       <c r="E24" t="n">
-        <v>469.3441995520415</v>
+        <v>467.9452863608004</v>
       </c>
       <c r="F24" t="n">
-        <v>322.8096415789264</v>
+        <v>321.4107283876854</v>
       </c>
       <c r="G24" t="n">
-        <v>186.4465414115445</v>
+        <v>185.0476282203035</v>
       </c>
       <c r="H24" t="n">
-        <v>95.94464704941205</v>
+        <v>94.54573385817099</v>
       </c>
       <c r="I24" t="n">
-        <v>76.93735545095002</v>
+        <v>75.53844225970894</v>
       </c>
       <c r="J24" t="n">
-        <v>170.6146249415673</v>
+        <v>169.2157117503263</v>
       </c>
       <c r="K24" t="n">
-        <v>408.8788239219145</v>
+        <v>407.4799107306734</v>
       </c>
       <c r="L24" t="n">
-        <v>775.5769842345798</v>
+        <v>774.1780710433388</v>
       </c>
       <c r="M24" t="n">
-        <v>1222.853309456896</v>
+        <v>1221.454396265655</v>
       </c>
       <c r="N24" t="n">
-        <v>1696.37635301135</v>
+        <v>1694.977439820109</v>
       </c>
       <c r="O24" t="n">
-        <v>2107.337632429405</v>
+        <v>2105.938719238164</v>
       </c>
       <c r="P24" t="n">
-        <v>2417.837223905508</v>
+        <v>2416.438310714267</v>
       </c>
       <c r="Q24" t="n">
-        <v>2575.478781552108</v>
+        <v>2574.079868360866</v>
       </c>
       <c r="R24" t="n">
-        <v>2575.334428144623</v>
+        <v>2573.935514953382</v>
       </c>
       <c r="S24" t="n">
-        <v>2445.896541638103</v>
+        <v>2444.497628446862</v>
       </c>
       <c r="T24" t="n">
-        <v>2253.253541315959</v>
+        <v>2251.854628124717</v>
       </c>
       <c r="U24" t="n">
-        <v>2025.185694450374</v>
+        <v>2023.786781259133</v>
       </c>
       <c r="V24" t="n">
-        <v>1790.033586218631</v>
+        <v>1788.63467302739</v>
       </c>
       <c r="W24" t="n">
-        <v>1535.79622949043</v>
+        <v>1534.397316299189</v>
       </c>
       <c r="X24" t="n">
-        <v>1327.944729284897</v>
+        <v>1326.545816093656</v>
       </c>
       <c r="Y24" t="n">
-        <v>1120.184430519943</v>
+        <v>1118.785517328702</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>666.7572334034525</v>
+        <v>631.0849470268048</v>
       </c>
       <c r="C25" t="n">
-        <v>560.0041484837058</v>
+        <v>529.228058276402</v>
       </c>
       <c r="D25" t="n">
-        <v>472.0706070795302</v>
+        <v>446.1907130415702</v>
       </c>
       <c r="E25" t="n">
-        <v>386.3406115052974</v>
+        <v>365.3569136366812</v>
       </c>
       <c r="F25" t="n">
-        <v>301.6337620155472</v>
+        <v>285.5462603162748</v>
       </c>
       <c r="G25" t="n">
-        <v>196.1140233984264</v>
+        <v>184.9227178684978</v>
       </c>
       <c r="H25" t="n">
-        <v>112.0799346244444</v>
+        <v>105.7848252638596</v>
       </c>
       <c r="I25" t="n">
-        <v>76.93735545095002</v>
+        <v>75.53844225970894</v>
       </c>
       <c r="J25" t="n">
-        <v>136.4763202401509</v>
+        <v>120.6610747066445</v>
       </c>
       <c r="K25" t="n">
-        <v>401.4091575468252</v>
+        <v>324.6482576555209</v>
       </c>
       <c r="L25" t="n">
-        <v>717.9689559953213</v>
+        <v>641.208056104017</v>
       </c>
       <c r="M25" t="n">
-        <v>1123.071655952668</v>
+        <v>985.3651017035661</v>
       </c>
       <c r="N25" t="n">
-        <v>1464.480032658533</v>
+        <v>1326.773478409431</v>
       </c>
       <c r="O25" t="n">
-        <v>1763.809631578946</v>
+        <v>1626.103077329844</v>
       </c>
       <c r="P25" t="n">
-        <v>1996.417132012606</v>
+        <v>1916.679080111864</v>
       </c>
       <c r="Q25" t="n">
-        <v>2074.02742816512</v>
+        <v>1994.289376264379</v>
       </c>
       <c r="R25" t="n">
-        <v>2046.380068930809</v>
+        <v>1971.538213199411</v>
       </c>
       <c r="S25" t="n">
-        <v>1916.877282765795</v>
+        <v>1846.931623203742</v>
       </c>
       <c r="T25" t="n">
-        <v>1757.293765343482</v>
+        <v>1692.244301950772</v>
       </c>
       <c r="U25" t="n">
-        <v>1530.373996477286</v>
+        <v>1470.220729253919</v>
       </c>
       <c r="V25" t="n">
-        <v>1337.872606279559</v>
+        <v>1282.615535225536</v>
       </c>
       <c r="W25" t="n">
-        <v>1110.638534250759</v>
+        <v>1060.27765936608</v>
       </c>
       <c r="X25" t="n">
-        <v>944.8320813609017</v>
+        <v>899.3674026455666</v>
       </c>
       <c r="Y25" t="n">
-        <v>786.2226002255319</v>
+        <v>745.6541176795405</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
         <v>1711.594658697161</v>
@@ -6212,16 +6212,16 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557146</v>
@@ -6233,31 +6233,31 @@
         <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>2033.429937623799</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2580.208754682581</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164794</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521972</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
         <v>3346.282596468334</v>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G28" t="n">
         <v>229.7905149643395</v>
@@ -6379,7 +6379,7 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
@@ -6388,7 +6388,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1635.769886219269</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>2169.301790891193</v>
+        <v>1928.524582776558</v>
       </c>
       <c r="N29" t="n">
-        <v>2716.080607949976</v>
+        <v>2475.303399835341</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164794</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521972</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.101050269801</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899674</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960317</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6640,31 +6640,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519674</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467804</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L32" t="n">
-        <v>1184.800837351327</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1718.332742023251</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N32" t="n">
-        <v>2265.111559082034</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O32" t="n">
-        <v>3145.076209411488</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P32" t="n">
-        <v>3539.850575768667</v>
+        <v>3518.923563871313</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3977.401766380301</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468336</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146295</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6877,31 +6877,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F35" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467804</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J35" t="n">
         <v>270.0260478557146</v>
@@ -6941,46 +6941,46 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L35" t="n">
-        <v>1468.364237198916</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.89614187084</v>
+        <v>1872.543307058813</v>
       </c>
       <c r="N35" t="n">
-        <v>2548.674958929623</v>
+        <v>2852.29557928546</v>
       </c>
       <c r="O35" t="n">
-        <v>3355.268050164795</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521975</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.34584483446</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309628</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641924</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468336</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146295</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7011,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D37" t="n">
         <v>549.9474938257041</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F37" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J37" t="n">
         <v>172.7749345960314</v>
@@ -7099,10 +7099,10 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N37" t="n">
         <v>1564.908879308444</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C38" t="n">
         <v>1711.594658697162</v>
@@ -7160,7 +7160,7 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467793</v>
+        <v>698.90370154678</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
@@ -7178,13 +7178,13 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L38" t="n">
-        <v>1054.87963479397</v>
+        <v>1326.966459396848</v>
       </c>
       <c r="M38" t="n">
-        <v>2033.429937623799</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N38" t="n">
-        <v>2580.208754682581</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O38" t="n">
         <v>3355.268050164796</v>
@@ -7202,19 +7202,19 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U38" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y38" t="n">
         <v>2372.257749805549</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F40" t="n">
         <v>350.0437186415472</v>
@@ -7351,31 +7351,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467782</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7409,28 +7409,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>924.7493799910142</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L41" t="n">
-        <v>1375.783593239423</v>
+        <v>1243.212295711678</v>
       </c>
       <c r="M41" t="n">
-        <v>2240.457506552423</v>
+        <v>1776.744200383602</v>
       </c>
       <c r="N41" t="n">
-        <v>2787.236323611205</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O41" t="n">
-        <v>3290.208794490542</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P41" t="n">
-        <v>3684.98316084772</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834458</v>
@@ -7491,10 +7491,10 @@
         <v>174.8241863873065</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D43" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
@@ -7567,13 +7567,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K43" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
@@ -7597,22 +7597,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X43" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557147</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>603.8454215455613</v>
+        <v>937.3106675423223</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.87963479397</v>
+        <v>1388.344880790731</v>
       </c>
       <c r="M44" t="n">
-        <v>1588.411539465895</v>
+        <v>1921.876785462656</v>
       </c>
       <c r="N44" t="n">
-        <v>2410.244144161087</v>
+        <v>2468.655602521438</v>
       </c>
       <c r="O44" t="n">
-        <v>3290.208794490542</v>
+        <v>2971.628073400775</v>
       </c>
       <c r="P44" t="n">
-        <v>3684.98316084772</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="45">
@@ -7719,25 +7719,25 @@
         <v>190.6561028572842</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803193</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697997</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899665</v>
+        <v>652.614500289966</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257036</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913838</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J46" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K46" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982168</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350172</v>
@@ -7834,7 +7834,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644068</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>218.2111409464629</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L8" t="n">
-        <v>233.4357089658653</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M8" t="n">
-        <v>227.7528737187178</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N8" t="n">
-        <v>226.7777408199137</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O8" t="n">
-        <v>227.6097508526263</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P8" t="n">
-        <v>229.1091522321465</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K9" t="n">
-        <v>136.5653954824675</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L9" t="n">
-        <v>136.8385818314783</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M9" t="n">
-        <v>140.1317786452013</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N9" t="n">
-        <v>129.2864630672354</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O9" t="n">
-        <v>140.7160931202018</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P9" t="n">
-        <v>132.4654202195568</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9730561082392</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>133.8997196622861</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M10" t="n">
-        <v>137.8872852940284</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6717389884799</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O10" t="n">
-        <v>137.5201250048898</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9173,19 +9173,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>9.027215541852001</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>276.5299795184538</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>407.528395314618</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>48.01542136296166</v>
+        <v>276.5299795184538</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>168.7261304254467</v>
       </c>
       <c r="K23" t="n">
-        <v>135.1964974438841</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,13 +9881,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>274.8351763665416</v>
+        <v>287.0017854473915</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>343.5485285966304</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>137.59088013685</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>131.233537936724</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>21.13839585591461</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,16 +10589,16 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>287.0017854473924</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>306.6874953089242</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>274.8351763665433</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>274.8351763665431</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11057,16 +11057,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>21.13839585591376</v>
       </c>
       <c r="M41" t="n">
-        <v>334.4868774152275</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>167.7369666428366</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11306,13 +11306,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>277.8321087236466</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.28796821707175</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>367.3442396627757</v>
+        <v>362.4970054551254</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>178.8500161725736</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>94.60163137868977</v>
+        <v>58.55336011503033</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>236.4090415494159</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>313.1661280606489</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>329.8076041002766</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>366.8045740389172</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>160.3986155648009</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>151.4396778495422</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>130.1688845048347</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>204.9628188666831</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>263.5149836608233</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>232.7042787066916</v>
       </c>
       <c r="W13" t="n">
-        <v>74.48491302945529</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>211.1235249795511</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>367.3442396627757</v>
+        <v>362.4970054551254</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.5336120621175</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>391.488361036317</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>26.9907993634399</v>
+        <v>22.14356515578953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>187.9751680019048</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>236.4090415494159</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>371.6518082465676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>152.6606906891418</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>129.1821084010759</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>130.1688845048347</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.76629000035204</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>74.34602226056127</v>
+        <v>54.06984503988458</v>
       </c>
       <c r="S16" t="n">
-        <v>175.1828949219558</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>158.0550368532207</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>267.0896337194546</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>206.2762907719007</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>166.8400329672268</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>59.24985007467208</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>59.24985007467155</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>166.8400329672273</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.122657522500958e-12</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1349873.523298737</v>
+        <v>1346445.788655905</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1106170.832498508</v>
+        <v>1119440.513062883</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1106170.832498508</v>
+        <v>1119440.513062882</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1288051.639190437</v>
+        <v>1269433.599385954</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1288051.639190437</v>
+        <v>1269433.599385954</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1297166.403624217</v>
+        <v>1295099.615362431</v>
       </c>
     </row>
     <row r="10">
@@ -26314,28 +26314,28 @@
         <v>163855.2677434077</v>
       </c>
       <c r="C2" t="n">
-        <v>163855.2677434076</v>
+        <v>163855.2677434077</v>
       </c>
       <c r="D2" t="n">
-        <v>163855.5028706329</v>
+        <v>163856.7405998996</v>
       </c>
       <c r="E2" t="n">
-        <v>141551.1836159126</v>
+        <v>143263.4004629287</v>
       </c>
       <c r="F2" t="n">
-        <v>141551.1836159127</v>
+        <v>143263.4004629288</v>
       </c>
       <c r="G2" t="n">
-        <v>163265.0963596679</v>
+        <v>161552.2606480183</v>
       </c>
       <c r="H2" t="n">
-        <v>163265.096359668</v>
+        <v>161552.2606480183</v>
       </c>
       <c r="I2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="J2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="K2" t="n">
         <v>164208.3539728567</v>
@@ -26350,7 +26350,7 @@
         <v>164208.3539728567</v>
       </c>
       <c r="O2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="P2" t="n">
         <v>164208.3539728566</v>
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3146.347615853227</v>
+        <v>19708.98312032399</v>
       </c>
       <c r="E3" t="n">
-        <v>1132485.366195433</v>
+        <v>1120825.725340858</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>69113.05565307141</v>
+        <v>56721.63792802517</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4059.930782752722</v>
+        <v>11432.24809489742</v>
       </c>
       <c r="J3" t="n">
-        <v>13767.5811863621</v>
+        <v>18342.79672397568</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="M3" t="n">
         <v>207188.568292073</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27686.42966250081</v>
+        <v>16806.56733165417</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>425523.1391661036</v>
       </c>
       <c r="D4" t="n">
-        <v>424575.2574791579</v>
+        <v>419628.9472231871</v>
       </c>
       <c r="E4" t="n">
-        <v>24510.35481354032</v>
+        <v>29408.70661412365</v>
       </c>
       <c r="F4" t="n">
-        <v>24510.35481354032</v>
+        <v>29408.70661412364</v>
       </c>
       <c r="G4" t="n">
-        <v>79852.25732242633</v>
+        <v>77546.04600947042</v>
       </c>
       <c r="H4" t="n">
-        <v>79852.25732242633</v>
+        <v>77546.04600947042</v>
       </c>
       <c r="I4" t="n">
-        <v>81663.99332571973</v>
+        <v>82647.66388928676</v>
       </c>
       <c r="J4" t="n">
+        <v>78703.96570883351</v>
+      </c>
+      <c r="K4" t="n">
+        <v>78703.96570883349</v>
+      </c>
+      <c r="L4" t="n">
         <v>78703.96570883348</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
+        <v>78703.96570883351</v>
+      </c>
+      <c r="N4" t="n">
         <v>78703.96570883348</v>
-      </c>
-      <c r="L4" t="n">
-        <v>78703.96570883344</v>
-      </c>
-      <c r="M4" t="n">
-        <v>78703.96570883346</v>
-      </c>
-      <c r="N4" t="n">
-        <v>78703.96570883346</v>
       </c>
       <c r="O4" t="n">
         <v>78703.96570883345</v>
       </c>
       <c r="P4" t="n">
-        <v>78703.96570883344</v>
+        <v>78703.96570883346</v>
       </c>
     </row>
     <row r="5">
@@ -26473,34 +26473,34 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33707.69021107268</v>
+        <v>34129.29174257201</v>
       </c>
       <c r="E5" t="n">
-        <v>75532.58195878839</v>
+        <v>75940.08409139133</v>
       </c>
       <c r="F5" t="n">
-        <v>75532.58195878839</v>
+        <v>75940.08409139133</v>
       </c>
       <c r="G5" t="n">
-        <v>86476.65650832401</v>
+        <v>84135.3829046305</v>
       </c>
       <c r="H5" t="n">
-        <v>86476.65650832401</v>
+        <v>84135.3829046305</v>
       </c>
       <c r="I5" t="n">
-        <v>87404.91637343945</v>
+        <v>86749.2444806992</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480615</v>
       </c>
       <c r="N5" t="n">
         <v>89377.94167480612</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-295295.4714226958</v>
+        <v>-295299.8850005639</v>
       </c>
       <c r="C6" t="n">
-        <v>-295295.4714226959</v>
+        <v>-295299.885000564</v>
       </c>
       <c r="D6" t="n">
-        <v>-297573.7924354508</v>
+        <v>-309614.8766533454</v>
       </c>
       <c r="E6" t="n">
-        <v>-1090977.119351849</v>
+        <v>-1083172.927502318</v>
       </c>
       <c r="F6" t="n">
-        <v>41508.24684358394</v>
+        <v>37652.7978385397</v>
       </c>
       <c r="G6" t="n">
-        <v>-72176.87312415383</v>
+        <v>-56884.00736066824</v>
       </c>
       <c r="H6" t="n">
-        <v>-3063.817471082366</v>
+        <v>-162.3694326430682</v>
       </c>
       <c r="I6" t="n">
-        <v>-8920.486509055132</v>
+        <v>-16620.80249202673</v>
       </c>
       <c r="J6" t="n">
-        <v>-17641.13459714506</v>
+        <v>-22216.35013475867</v>
       </c>
       <c r="K6" t="n">
         <v>-3873.55341078293</v>
       </c>
       <c r="L6" t="n">
-        <v>-41453.66270565693</v>
+        <v>-41453.66270565699</v>
       </c>
       <c r="M6" t="n">
-        <v>-211062.1217028559</v>
+        <v>-211062.121702856</v>
       </c>
       <c r="N6" t="n">
-        <v>-3873.553410782901</v>
+        <v>-3873.553410782857</v>
       </c>
       <c r="O6" t="n">
-        <v>-31559.98307328374</v>
+        <v>-20680.12074243699</v>
       </c>
       <c r="P6" t="n">
         <v>-3873.553410782988</v>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="F2" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="G2" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="H2" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="I2" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
         <v>46.97513661859255</v>
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.673862893242319</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26796,31 +26796,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>946.4495111448448</v>
+        <v>901.2393839031267</v>
       </c>
       <c r="H4" t="n">
-        <v>946.4495111448448</v>
+        <v>901.2393839031267</v>
       </c>
       <c r="I4" t="n">
-        <v>961.7169431368752</v>
+        <v>944.2305282463618</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="N4" t="n">
         <v>1014.336461208615</v>
@@ -26829,7 +26829,7 @@
         <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.673862893242319</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="E3" t="n">
-        <v>1086.102837700056</v>
+        <v>1066.763317906509</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,37 +27018,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>69.8379285008341</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>42.99114434323508</v>
+      </c>
+      <c r="J4" t="n">
+        <v>70.10593296225284</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>115.0480557425519</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15.26743199203042</v>
-      </c>
-      <c r="J4" t="n">
-        <v>52.61951807173909</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.401455402293</v>
-      </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>115.0480557425517</v>
+        <v>69.83792850083387</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>115.0480557425519</v>
+        <v>69.8379285008341</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27868,13 +27868,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.3235460419765</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>209.9064962068211</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J8" t="n">
-        <v>10.69576364311372</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,19 +27895,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>148.9413660216818</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S8" t="n">
-        <v>208.6835142066282</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0311969618593</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3444713639914</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27944,13 +27944,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3356148920818</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>112.1591249337519</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>89.12455904281175</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>99.6672001609758</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S9" t="n">
-        <v>171.5363898835276</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1328769967189</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9408621947163</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28023,19 +28023,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>162.1682702466266</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>155.2512431493756</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J10" t="n">
-        <v>92.89079271141465</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K10" t="n">
-        <v>21.49978743611831</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,22 +28050,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.920177260816417</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>85.60728995481479</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R10" t="n">
-        <v>176.9955073465141</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>223.9011423785076</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9172826158254</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3186679929276</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="C11" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="D11" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="E11" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="F11" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="G11" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="H11" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="I11" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="T11" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="U11" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="V11" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="W11" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="X11" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="C13" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="D13" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="E13" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="F13" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="G13" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="H13" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="I13" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="J13" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="K13" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="L13" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="M13" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="N13" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="O13" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="P13" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="R13" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="S13" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="T13" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="U13" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="V13" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="W13" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="X13" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="C14" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="D14" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="E14" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="F14" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="G14" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="H14" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="I14" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="T14" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="U14" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="V14" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="W14" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="X14" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="C16" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="D16" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="E16" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="F16" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="G16" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="H16" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="I16" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="J16" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="K16" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="L16" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="M16" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="N16" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="O16" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="P16" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="R16" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="S16" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="T16" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="U16" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="V16" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="W16" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="X16" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
       <c r="Y16" t="n">
-        <v>14.58613040948605</v>
+        <v>19.43336461713641</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="C17" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="D17" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="E17" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="F17" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="G17" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="H17" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="T17" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="U17" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="V17" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="W17" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="X17" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="Y17" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
     </row>
     <row r="18">
@@ -28719,46 +28719,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="C19" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="D19" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="E19" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="F19" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="G19" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="H19" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="I19" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>58.55404277612195</v>
       </c>
       <c r="L19" t="n">
-        <v>61.56126702807863</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>14.56195186087444</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>61.56126702807863</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="S19" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="T19" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="U19" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="V19" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="W19" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="X19" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="Y19" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="C20" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="D20" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="E20" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="F20" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="G20" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="H20" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="T20" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="U20" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="V20" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="W20" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="X20" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="Y20" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
     </row>
     <row r="21">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="C22" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="D22" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="E22" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="F22" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="G22" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="H22" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="I22" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="J22" t="n">
-        <v>61.56126702807863</v>
+        <v>58.55404277612193</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>61.56126702807863</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -28998,34 +28998,34 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>14.56195186087444</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="S22" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="T22" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="U22" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="V22" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="W22" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="X22" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="Y22" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="C23" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="D23" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="E23" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="F23" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="G23" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="H23" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="T23" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="U23" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="V23" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="W23" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="X23" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="Y23" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
     </row>
     <row r="24">
@@ -29193,40 +29193,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="C25" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="D25" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="E25" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="F25" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="G25" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="H25" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="I25" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="J25" t="n">
-        <v>14.56195186087408</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>61.56126702807863</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>61.56126702807863</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29235,34 +29235,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>58.55404277612206</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="S25" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="T25" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="U25" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="V25" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="W25" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="X25" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
       <c r="Y25" t="n">
-        <v>61.56126702807863</v>
+        <v>66.40850123572898</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859244</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="38">
@@ -30414,7 +30414,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="O40" t="n">
         <v>46.97513661859254</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30715,7 +30715,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859215</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K46" t="n">
         <v>46.97513661859255</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01476929806328569</v>
+        <v>0.09251611130367558</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1512560737906247</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5693933635848223</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J8" t="n">
-        <v>1.253525711498795</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K8" t="n">
-        <v>1.878710098517679</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L8" t="n">
-        <v>2.330706004121959</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M8" t="n">
-        <v>2.593359508554916</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N8" t="n">
-        <v>2.635322776677227</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O8" t="n">
-        <v>2.488460569060429</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P8" t="n">
-        <v>2.123843523123063</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.594918036231644</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0.9277519194678707</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3365553796171231</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T8" t="n">
-        <v>0.06465260227203316</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001181543845062855</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.007902271128860838</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07631930274452442</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2720738086033228</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K9" t="n">
-        <v>1.276043491891533</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L9" t="n">
-        <v>1.715797948395859</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M9" t="n">
-        <v>2.002255276817064</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N9" t="n">
-        <v>2.05524901609789</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O9" t="n">
-        <v>1.880151324242605</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P9" t="n">
-        <v>1.508987194773435</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.008717977782306</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4906339916673424</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1467812203102001</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T9" t="n">
-        <v>0.03185169810273293</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U9" t="n">
-        <v>0.000519886258477687</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006624998659945164</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05890226081296705</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1992317778827147</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4683874052581232</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7697043897645381</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9849566189522113</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M10" t="n">
-        <v>1.038498653576677</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N10" t="n">
-        <v>1.013805476753246</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O10" t="n">
-        <v>0.936413446952977</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8012634742900949</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5547532968795902</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2978840306553525</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1154556584646807</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T10" t="n">
-        <v>0.02830681245612933</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.461131202644</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32555,10 +32555,10 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -32792,7 +32792,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233475</v>
@@ -32801,7 +32801,7 @@
         <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970245</v>
       </c>
       <c r="P24" t="n">
         <v>447.6103584002927</v>
@@ -33035,7 +33035,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33278,10 +33278,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33509,7 +33509,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33740,13 +33740,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34366,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.16454702255227</v>
+        <v>65.01178123020263</v>
       </c>
       <c r="K13" t="n">
-        <v>220.6337899538056</v>
+        <v>225.481024161456</v>
       </c>
       <c r="L13" t="n">
-        <v>334.3435025796842</v>
+        <v>339.1907367873345</v>
       </c>
       <c r="M13" t="n">
-        <v>362.2195098029699</v>
+        <v>367.0667440106203</v>
       </c>
       <c r="N13" t="n">
-        <v>359.4430765770261</v>
+        <v>364.2903107846765</v>
       </c>
       <c r="O13" t="n">
-        <v>316.9392606321258</v>
+        <v>321.7864948397762</v>
       </c>
       <c r="P13" t="n">
-        <v>249.5432015545965</v>
+        <v>254.3904357622469</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.9803689473797</v>
+        <v>97.82760315503006</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.16454702255228</v>
+        <v>65.01178123020263</v>
       </c>
       <c r="K16" t="n">
-        <v>220.6337899538056</v>
+        <v>225.481024161456</v>
       </c>
       <c r="L16" t="n">
-        <v>334.3435025796842</v>
+        <v>339.1907367873345</v>
       </c>
       <c r="M16" t="n">
-        <v>362.2195098029699</v>
+        <v>367.0667440106203</v>
       </c>
       <c r="N16" t="n">
-        <v>359.4430765770261</v>
+        <v>364.2903107846765</v>
       </c>
       <c r="O16" t="n">
-        <v>316.9392606321258</v>
+        <v>321.7864948397762</v>
       </c>
       <c r="P16" t="n">
-        <v>249.5432015545965</v>
+        <v>254.3904357622469</v>
       </c>
       <c r="Q16" t="n">
-        <v>92.9803689473797</v>
+        <v>97.82760315503006</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,19 +35893,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>561.3290509547635</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>675.2919657378256</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597729</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36042,19 +36042,19 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>264.6017023204415</v>
       </c>
       <c r="L19" t="n">
-        <v>381.3186391982767</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>362.1953312543583</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>363.9143972507184</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
@@ -36127,7 +36127,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>946.4495111448448</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
@@ -36136,7 +36136,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>446.7774075823335</v>
+        <v>675.2919657378256</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36203,10 +36203,10 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>107.1396836411449</v>
+        <v>104.1324593891882</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
@@ -36285,7 +36285,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>409.1946464215625</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
         <v>344.8569461675401</v>
@@ -36294,7 +36294,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>249.5190230059849</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
         <v>78.39423853789366</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.5131313941592</v>
       </c>
       <c r="K23" t="n">
-        <v>472.3877839992846</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36370,16 +36370,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013292</v>
@@ -36449,7 +36449,7 @@
         <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>60.14036847394031</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>267.6089265723982</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>409.1946464215625</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
         <v>344.8569461675401</v>
@@ -36531,7 +36531,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>293.5111139212325</v>
       </c>
       <c r="Q25" t="n">
         <v>78.39423853789366</v>
@@ -36601,13 +36601,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>782.8881772547608</v>
+        <v>795.0547863356106</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36683,7 +36683,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165881</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>882.4696444268571</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>645.6438810250692</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36926,10 +36926,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -36999,16 +36999,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>586.8236523290561</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37081,16 +37081,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>80.75159439813939</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37309,16 +37309,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>825.9229012776192</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>814.7404961971433</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37388,13 +37388,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37546,7 +37546,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>730.4252907588755</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
@@ -37555,7 +37555,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>782.8881772547622</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>476.7285102482459</v>
       </c>
       <c r="M41" t="n">
-        <v>873.4079932454542</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -37795,13 +37795,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>504.9282531982371</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>830.1339441365581</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509647</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316584</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38187,7 +38187,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
